--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAAF392-8BD7-E945-BAD2-6F6D412FFEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4E97F-2113-054F-B7CD-6CDF6827C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17260" xr2:uid="{119CF632-2845-164B-BDE0-A54D82971344}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17260" activeTab="1" xr2:uid="{119CF632-2845-164B-BDE0-A54D82971344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Main</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +183,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +231,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,8 +240,15 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -554,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6709DC-42EC-A944-9198-0C4B2C2E5E01}">
   <dimension ref="K2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -643,8 +677,8 @@
         <v>9</v>
       </c>
       <c r="L12" s="3">
-        <f>NPV(L11,Model!P17:CT17)+L5-L6</f>
-        <v>2428869.8124656351</v>
+        <f>NPV(L11,Model!S17:CV17)+L5-L6</f>
+        <v>2288558.3731014733</v>
       </c>
     </row>
     <row r="13" spans="11:12">
@@ -653,13 +687,13 @@
       </c>
       <c r="L13" s="6">
         <f>L12/L3</f>
-        <v>198.42086532682256</v>
+        <v>186.95844890952318</v>
       </c>
     </row>
     <row r="15" spans="11:12">
       <c r="L15" s="7">
         <f>L13/L2-1</f>
-        <v>4.4320343825381858E-2</v>
+        <v>-1.6008163634088524E-2</v>
       </c>
     </row>
   </sheetData>
@@ -669,20 +703,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216CEA46-FD5C-F14C-B1E3-C8D30CF2F217}">
-  <dimension ref="A1:CT25"/>
+  <dimension ref="A1:CV25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -704,1236 +738,1464 @@
       <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="K5">
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
         <v>2019</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2020</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>2021</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>2022</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>2023</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2024</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>2025</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>2026</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>2027</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>2028</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>2029</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="B6" t="s">
+    <row r="6" spans="1:24" s="13" customFormat="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="13">
         <v>69787</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="13">
         <v>74604</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="13">
         <v>76693</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="13">
         <v>86310</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="13">
         <v>80539</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="13">
         <v>84742</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="13">
         <v>88268</v>
       </c>
-      <c r="K6" s="8">
+      <c r="J6" s="13">
+        <f>F6*1.12</f>
+        <v>96667.200000000012</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="13">
         <v>161857</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="13">
         <v>182527</v>
       </c>
-      <c r="M6" s="8">
+      <c r="O6" s="13">
         <v>257637</v>
       </c>
-      <c r="N6" s="8">
+      <c r="P6" s="13">
         <v>282836</v>
       </c>
-      <c r="O6" s="8">
+      <c r="Q6" s="13">
         <v>307394</v>
       </c>
-      <c r="P6" s="8">
-        <f>O6+O6*P21</f>
-        <v>353503.1</v>
-      </c>
-      <c r="Q6" s="8">
-        <f t="shared" ref="Q6:V6" si="0">P6+P6*Q21</f>
-        <v>399458.50299999997</v>
-      </c>
-      <c r="R6" s="8">
+      <c r="R6" s="13">
+        <f>SUM(G6:J6)</f>
+        <v>350216.2</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" ref="S6:X6" si="0">R6+R6*S21</f>
+        <v>392242.14400000003</v>
+      </c>
+      <c r="T6" s="13">
         <f t="shared" si="0"/>
-        <v>447393.52335999999</v>
-      </c>
-      <c r="S6" s="8">
+        <v>439311.20128000004</v>
+      </c>
+      <c r="U6" s="13">
         <f t="shared" si="0"/>
-        <v>492132.875696</v>
-      </c>
-      <c r="T6" s="8">
+        <v>483242.32140800008</v>
+      </c>
+      <c r="V6" s="13">
         <f t="shared" si="0"/>
-        <v>541346.16326559999</v>
-      </c>
-      <c r="U6" s="8">
+        <v>531566.55354880006</v>
+      </c>
+      <c r="W6" s="13">
         <f t="shared" si="0"/>
-        <v>595480.77959216002</v>
-      </c>
-      <c r="V6" s="8">
+        <v>558144.88122624008</v>
+      </c>
+      <c r="X6" s="13">
         <f t="shared" si="0"/>
-        <v>655028.85755137599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>586052.12528755213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="14" customFormat="1">
+      <c r="A7"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="14">
         <v>30612</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="14">
         <v>31916</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="14">
         <v>33229</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="14">
         <v>37575</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="14">
         <v>33712</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="14">
         <v>35507</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="14">
         <v>36474</v>
       </c>
-      <c r="L7" s="8">
+      <c r="J7" s="14">
+        <f>F7*1.11</f>
+        <v>41708.250000000007</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="N7" s="14">
         <v>84732</v>
       </c>
-      <c r="M7" s="8">
+      <c r="O7" s="14">
         <v>110939</v>
       </c>
-      <c r="N7" s="8">
+      <c r="P7" s="14">
         <v>126203</v>
       </c>
-      <c r="O7" s="8">
+      <c r="Q7" s="14">
         <v>133332</v>
       </c>
-      <c r="P7" s="8">
-        <f>P6-P8</f>
-        <v>153314.29446999999</v>
-      </c>
-      <c r="Q7" s="8">
-        <f t="shared" ref="Q7:V7" si="1">Q6-Q8</f>
-        <v>173245.15275109999</v>
-      </c>
-      <c r="R7" s="8">
+      <c r="R7" s="14">
+        <f>R6-R8</f>
+        <v>151888.76593999998</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" ref="S7:X7" si="1">S6-S8</f>
+        <v>170115.41785279999</v>
+      </c>
+      <c r="T7" s="14">
         <f t="shared" si="1"/>
-        <v>194034.57108123199</v>
-      </c>
-      <c r="S7" s="8">
+        <v>190529.267995136</v>
+      </c>
+      <c r="U7" s="14">
         <f t="shared" si="1"/>
-        <v>213438.02818935522</v>
-      </c>
-      <c r="T7" s="8">
+        <v>209582.19479464961</v>
+      </c>
+      <c r="V7" s="14">
         <f t="shared" si="1"/>
-        <v>234781.8310082907</v>
-      </c>
-      <c r="U7" s="8">
+        <v>230540.41427411459</v>
+      </c>
+      <c r="W7" s="14">
         <f t="shared" si="1"/>
-        <v>258260.01410911977</v>
-      </c>
-      <c r="V7" s="8">
+        <v>242067.43498782028</v>
+      </c>
+      <c r="X7" s="14">
         <f t="shared" si="1"/>
-        <v>284086.01552003174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="B8" t="s">
+        <v>254170.80673721136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="15" customFormat="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="15">
+        <f t="shared" ref="C8:H8" si="2">C6-C7</f>
         <v>39175</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="15">
+        <f t="shared" si="2"/>
         <v>42688</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="15">
+        <f t="shared" si="2"/>
         <v>43464</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="15">
+        <f t="shared" si="2"/>
         <v>48735</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="15">
+        <f t="shared" si="2"/>
         <v>46827</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
         <v>49235</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="15">
+        <f>I6-I7</f>
         <v>51794</v>
       </c>
-      <c r="L8" s="8">
+      <c r="J8" s="15">
+        <f>J6-J7</f>
+        <v>54958.950000000004</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="15">
+        <f>N6-N7</f>
         <v>97795</v>
       </c>
-      <c r="M8" s="8">
+      <c r="O8" s="15">
+        <f t="shared" ref="O8:Q8" si="3">O6-O7</f>
         <v>146698</v>
       </c>
-      <c r="N8" s="8">
+      <c r="P8" s="15">
+        <f t="shared" si="3"/>
         <v>156633</v>
       </c>
-      <c r="O8" s="8">
+      <c r="Q8" s="15">
+        <f t="shared" si="3"/>
         <v>174062</v>
       </c>
-      <c r="P8" s="8">
-        <f>P6*P22</f>
-        <v>200188.80552999998</v>
-      </c>
-      <c r="Q8" s="8">
-        <f t="shared" ref="Q8:V8" si="2">Q6*Q22</f>
-        <v>226213.35024889998</v>
-      </c>
-      <c r="R8" s="8">
-        <f t="shared" si="2"/>
-        <v>253358.952278768</v>
-      </c>
-      <c r="S8" s="8">
-        <f t="shared" si="2"/>
-        <v>278694.84750664479</v>
-      </c>
-      <c r="T8" s="8">
-        <f t="shared" si="2"/>
-        <v>306564.33225730929</v>
-      </c>
-      <c r="U8" s="8">
-        <f t="shared" si="2"/>
-        <v>337220.76548304025</v>
-      </c>
-      <c r="V8" s="8">
-        <f t="shared" si="2"/>
-        <v>370942.84203134425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="R8" s="15">
+        <f>R6*R22</f>
+        <v>198327.43406000003</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" ref="S8:X8" si="4">S6*S22</f>
+        <v>222126.72614720004</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="4"/>
+        <v>248781.93328486403</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="4"/>
+        <v>273660.12661335047</v>
+      </c>
+      <c r="V8" s="15">
+        <f t="shared" si="4"/>
+        <v>301026.13927468547</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="4"/>
+        <v>316077.4462384198</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="4"/>
+        <v>331881.31855034077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="14" customFormat="1">
+      <c r="A9"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="14">
         <v>11468</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="14">
         <v>10588</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="14">
         <v>11258</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="14">
         <v>12113</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="14">
         <v>11903</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="14">
         <v>11860</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="14">
         <v>12447</v>
       </c>
-      <c r="L9" s="8">
+      <c r="J9" s="14">
+        <f>I9</f>
+        <v>12447</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="N9" s="14">
         <v>27573</v>
       </c>
-      <c r="M9" s="8">
+      <c r="O9" s="14">
         <v>31562</v>
       </c>
-      <c r="N9" s="8">
+      <c r="P9" s="14">
         <v>39500</v>
       </c>
-      <c r="O9" s="8">
+      <c r="Q9" s="14">
         <v>45427</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24" s="14" customFormat="1">
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="14">
         <v>6533</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="14">
         <v>6781</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="14">
         <v>6884</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="14">
         <v>7719</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="14">
         <v>6426</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="14">
         <v>6792</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="14">
         <v>7227</v>
       </c>
-      <c r="L10" s="8">
+      <c r="J10" s="14">
+        <f>I10</f>
+        <v>7227</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="N10" s="14">
         <v>17946</v>
       </c>
-      <c r="M10" s="8">
+      <c r="O10" s="14">
         <v>22912</v>
       </c>
-      <c r="N10" s="8">
+      <c r="P10" s="14">
         <v>26567</v>
       </c>
-      <c r="O10" s="8">
+      <c r="Q10" s="14">
         <v>27917</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24" s="14" customFormat="1">
+      <c r="A11"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="14">
         <v>3759</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="14">
         <v>3481</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="14">
         <v>3979</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="14">
         <v>5206</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="14">
         <v>3026</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="14">
         <v>3158</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="14">
         <v>3599</v>
       </c>
-      <c r="L11" s="8">
+      <c r="J11" s="14">
+        <f>I11</f>
+        <v>3599</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="N11" s="14">
         <v>11052</v>
       </c>
-      <c r="M11" s="8">
+      <c r="O11" s="14">
         <v>13510</v>
       </c>
-      <c r="N11" s="8">
+      <c r="P11" s="14">
         <v>15724</v>
       </c>
-      <c r="O11" s="8">
+      <c r="Q11" s="14">
         <v>16425</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="B12" t="s">
+    <row r="12" spans="1:24" s="15" customFormat="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="15">
+        <f t="shared" ref="C12:H12" si="5">SUM(C9:C11)</f>
         <v>21760</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="15">
+        <f t="shared" si="5"/>
         <v>20850</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="15">
+        <f t="shared" si="5"/>
         <v>22121</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="15">
+        <f t="shared" si="5"/>
         <v>25038</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="15">
+        <f t="shared" si="5"/>
         <v>21355</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="15">
+        <f t="shared" si="5"/>
         <v>21810</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="15">
+        <f>SUM(I9:I11)</f>
         <v>23273</v>
       </c>
-      <c r="L12" s="8">
+      <c r="J12" s="15">
+        <f>SUM(J9:J11)</f>
+        <v>23273</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="N12" s="15">
+        <f>SUM(N9:N11)</f>
         <v>56571</v>
       </c>
-      <c r="M12" s="8">
+      <c r="O12" s="15">
+        <f t="shared" ref="O12:Q12" si="6">SUM(O9:O11)</f>
         <v>67984</v>
       </c>
-      <c r="N12" s="8">
+      <c r="P12" s="15">
+        <f t="shared" si="6"/>
         <v>81791</v>
       </c>
-      <c r="O12" s="8">
+      <c r="Q12" s="15">
+        <f t="shared" si="6"/>
         <v>89769</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="B13" t="s">
+    <row r="13" spans="1:24" s="15" customFormat="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="15">
+        <f t="shared" ref="C13:H13" si="7">C8-C12</f>
         <v>17415</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="15">
+        <f t="shared" si="7"/>
         <v>21838</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="15">
+        <f t="shared" si="7"/>
         <v>21343</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="15">
+        <f t="shared" si="7"/>
         <v>23697</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="15">
+        <f t="shared" si="7"/>
         <v>25472</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="15">
+        <f t="shared" si="7"/>
         <v>27425</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="15">
+        <f>I8-I12</f>
         <v>28521</v>
       </c>
-      <c r="L13" s="8">
+      <c r="J13" s="15">
+        <f>J8-J12</f>
+        <v>31685.950000000004</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="N13" s="15">
+        <f>N8-N12</f>
         <v>41224</v>
       </c>
-      <c r="M13" s="8">
+      <c r="O13" s="15">
+        <f t="shared" ref="O13:Q13" si="8">O8-O12</f>
         <v>78714</v>
       </c>
-      <c r="N13" s="8">
+      <c r="P13" s="15">
+        <f t="shared" si="8"/>
         <v>74842</v>
       </c>
-      <c r="O13" s="8">
+      <c r="Q13" s="15">
+        <f t="shared" si="8"/>
         <v>84293</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:24" s="14" customFormat="1">
+      <c r="A14"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>790</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>65</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>-146</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>715</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="14">
         <v>2843</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <v>126</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="14">
         <v>3185</v>
       </c>
-      <c r="L14" s="8">
+      <c r="J14" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="N14" s="14">
         <v>6858</v>
       </c>
-      <c r="M14" s="8">
+      <c r="O14" s="14">
         <v>12020</v>
       </c>
-      <c r="N14" s="8">
+      <c r="P14" s="14">
         <v>-3514</v>
       </c>
-      <c r="O14" s="8">
+      <c r="Q14" s="14">
         <v>1424</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="B15" t="s">
+    <row r="15" spans="1:24" s="15" customFormat="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:H15" si="9">SUM(C13:C14)</f>
         <v>18205</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="15">
+        <f t="shared" si="9"/>
         <v>21903</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="15">
+        <f t="shared" si="9"/>
         <v>21197</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="15">
+        <f t="shared" si="9"/>
         <v>24412</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="15">
+        <f t="shared" si="9"/>
         <v>28315</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="15">
+        <f t="shared" si="9"/>
         <v>27551</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="15">
+        <f>SUM(I13:I14)</f>
         <v>31706</v>
       </c>
-      <c r="L15" s="8">
+      <c r="J15" s="15">
+        <f>SUM(J13:J14)</f>
+        <v>32685.950000000004</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="N15" s="15">
+        <f>SUM(N13:N14)</f>
         <v>48082</v>
       </c>
-      <c r="M15" s="8">
+      <c r="O15" s="15">
+        <f t="shared" ref="O15:Q15" si="10">SUM(O13:O14)</f>
         <v>90734</v>
       </c>
-      <c r="N15" s="8">
+      <c r="P15" s="15">
+        <f t="shared" si="10"/>
         <v>71328</v>
       </c>
-      <c r="O15" s="8">
+      <c r="Q15" s="15">
+        <f t="shared" si="10"/>
         <v>85717</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:24" s="14" customFormat="1">
+      <c r="A16"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="14">
         <v>3154</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="14">
         <v>3535</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="14">
         <v>1508</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="14">
         <v>3725</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="14">
         <v>4653</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="14">
         <v>3932</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="14">
         <v>5405</v>
       </c>
-      <c r="L16" s="8">
+      <c r="J16" s="14">
+        <f>J15*I23</f>
+        <v>5572.0544928404734</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="N16" s="14">
         <v>7813</v>
       </c>
-      <c r="M16" s="8">
+      <c r="O16" s="14">
         <v>14701</v>
       </c>
-      <c r="N16" s="8">
+      <c r="P16" s="14">
         <v>11356</v>
       </c>
-      <c r="O16" s="8">
+      <c r="Q16" s="14">
         <v>11922</v>
       </c>
     </row>
-    <row r="17" spans="2:98">
-      <c r="B17" t="s">
+    <row r="17" spans="1:100" s="16" customFormat="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:H17" si="11">C15-C16</f>
         <v>15051</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="16">
+        <f t="shared" si="11"/>
         <v>18368</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="16">
+        <f t="shared" si="11"/>
         <v>19689</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="16">
+        <f t="shared" si="11"/>
         <v>20687</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="16">
+        <f t="shared" si="11"/>
         <v>23662</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="16">
+        <f t="shared" si="11"/>
         <v>23619</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="16">
+        <f>I15-I16</f>
         <v>26301</v>
       </c>
-      <c r="L17" s="8">
+      <c r="J17" s="16">
+        <f>J15-J16</f>
+        <v>27113.89550715953</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="N17" s="16">
+        <f>N15-N16</f>
         <v>40269</v>
       </c>
-      <c r="M17" s="8">
+      <c r="O17" s="16">
+        <f t="shared" ref="O17:Q17" si="12">O15-O16</f>
         <v>76033</v>
       </c>
-      <c r="N17" s="8">
+      <c r="P17" s="16">
+        <f t="shared" si="12"/>
         <v>59972</v>
       </c>
-      <c r="O17" s="8">
+      <c r="Q17" s="16">
+        <f t="shared" si="12"/>
         <v>73795</v>
       </c>
-      <c r="P17" s="8">
-        <f>P6*P24</f>
-        <v>88375.774999999994</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" ref="Q17:V17" si="3">Q6*Q24</f>
-        <v>99864.625749999992</v>
-      </c>
-      <c r="R17" s="8">
-        <f t="shared" si="3"/>
-        <v>111848.38084</v>
-      </c>
-      <c r="S17" s="8">
-        <f t="shared" si="3"/>
-        <v>123033.218924</v>
-      </c>
-      <c r="T17" s="8">
-        <f t="shared" si="3"/>
-        <v>135336.5408164</v>
-      </c>
-      <c r="U17" s="8">
-        <f t="shared" si="3"/>
-        <v>148870.19489804</v>
-      </c>
-      <c r="V17" s="8">
-        <f t="shared" si="3"/>
-        <v>163757.214387844</v>
-      </c>
-      <c r="W17">
-        <f>V17+V17*Main!$L$10</f>
-        <v>165394.78653172244</v>
-      </c>
-      <c r="X17">
-        <f>W17+W17*Main!$L$10</f>
-        <v>167048.73439703966</v>
-      </c>
-      <c r="Y17">
+      <c r="R17" s="16">
+        <f>R6*R24</f>
+        <v>87554.05</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" ref="S17:X17" si="13">S6*S24</f>
+        <v>98060.536000000007</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="13"/>
+        <v>109827.80032000001</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="13"/>
+        <v>120810.58035200002</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="13"/>
+        <v>132891.63838720002</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="13"/>
+        <v>139536.22030656002</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="13"/>
+        <v>146513.03132188803</v>
+      </c>
+      <c r="Y17" s="16">
         <f>X17+X17*Main!$L$10</f>
-        <v>168719.22174101006</v>
-      </c>
-      <c r="Z17">
+        <v>147978.16163510692</v>
+      </c>
+      <c r="Z17" s="16">
         <f>Y17+Y17*Main!$L$10</f>
-        <v>170406.41395842016</v>
-      </c>
-      <c r="AA17">
+        <v>149457.943251458</v>
+      </c>
+      <c r="AA17" s="16">
         <f>Z17+Z17*Main!$L$10</f>
-        <v>172110.47809800436</v>
-      </c>
-      <c r="AB17">
+        <v>150952.52268397258</v>
+      </c>
+      <c r="AB17" s="16">
         <f>AA17+AA17*Main!$L$10</f>
-        <v>173831.58287898439</v>
-      </c>
-      <c r="AC17">
+        <v>152462.04791081231</v>
+      </c>
+      <c r="AC17" s="16">
         <f>AB17+AB17*Main!$L$10</f>
-        <v>175569.89870777423</v>
-      </c>
-      <c r="AD17">
+        <v>153986.66838992044</v>
+      </c>
+      <c r="AD17" s="16">
         <f>AC17+AC17*Main!$L$10</f>
-        <v>177325.59769485198</v>
-      </c>
-      <c r="AE17">
+        <v>155526.53507381963</v>
+      </c>
+      <c r="AE17" s="16">
         <f>AD17+AD17*Main!$L$10</f>
-        <v>179098.85367180049</v>
-      </c>
-      <c r="AF17">
+        <v>157081.80042455782</v>
+      </c>
+      <c r="AF17" s="16">
         <f>AE17+AE17*Main!$L$10</f>
-        <v>180889.8422085185</v>
-      </c>
-      <c r="AG17">
+        <v>158652.6184288034</v>
+      </c>
+      <c r="AG17" s="16">
         <f>AF17+AF17*Main!$L$10</f>
-        <v>182698.74063060369</v>
-      </c>
-      <c r="AH17">
+        <v>160239.14461309143</v>
+      </c>
+      <c r="AH17" s="16">
         <f>AG17+AG17*Main!$L$10</f>
-        <v>184525.72803690971</v>
-      </c>
-      <c r="AI17">
+        <v>161841.53605922233</v>
+      </c>
+      <c r="AI17" s="16">
         <f>AH17+AH17*Main!$L$10</f>
-        <v>186370.9853172788</v>
-      </c>
-      <c r="AJ17">
+        <v>163459.95141981455</v>
+      </c>
+      <c r="AJ17" s="16">
         <f>AI17+AI17*Main!$L$10</f>
-        <v>188234.6951704516</v>
-      </c>
-      <c r="AK17">
+        <v>165094.55093401269</v>
+      </c>
+      <c r="AK17" s="16">
         <f>AJ17+AJ17*Main!$L$10</f>
-        <v>190117.04212215613</v>
-      </c>
-      <c r="AL17">
+        <v>166745.49644335281</v>
+      </c>
+      <c r="AL17" s="16">
         <f>AK17+AK17*Main!$L$10</f>
-        <v>192018.21254337768</v>
-      </c>
-      <c r="AM17">
+        <v>168412.95140778634</v>
+      </c>
+      <c r="AM17" s="16">
         <f>AL17+AL17*Main!$L$10</f>
-        <v>193938.39466881147</v>
-      </c>
-      <c r="AN17">
+        <v>170097.0809218642</v>
+      </c>
+      <c r="AN17" s="16">
         <f>AM17+AM17*Main!$L$10</f>
-        <v>195877.77861549958</v>
-      </c>
-      <c r="AO17">
+        <v>171798.05173108284</v>
+      </c>
+      <c r="AO17" s="16">
         <f>AN17+AN17*Main!$L$10</f>
-        <v>197836.55640165458</v>
-      </c>
-      <c r="AP17">
+        <v>173516.03224839366</v>
+      </c>
+      <c r="AP17" s="16">
         <f>AO17+AO17*Main!$L$10</f>
-        <v>199814.92196567112</v>
-      </c>
-      <c r="AQ17">
+        <v>175251.19257087761</v>
+      </c>
+      <c r="AQ17" s="16">
         <f>AP17+AP17*Main!$L$10</f>
-        <v>201813.07118532783</v>
-      </c>
-      <c r="AR17">
+        <v>177003.70449658638</v>
+      </c>
+      <c r="AR17" s="16">
         <f>AQ17+AQ17*Main!$L$10</f>
-        <v>203831.2018971811</v>
-      </c>
-      <c r="AS17">
+        <v>178773.74154155224</v>
+      </c>
+      <c r="AS17" s="16">
         <f>AR17+AR17*Main!$L$10</f>
-        <v>205869.51391615291</v>
-      </c>
-      <c r="AT17">
+        <v>180561.47895696777</v>
+      </c>
+      <c r="AT17" s="16">
         <f>AS17+AS17*Main!$L$10</f>
-        <v>207928.20905531442</v>
-      </c>
-      <c r="AU17">
+        <v>182367.09374653746</v>
+      </c>
+      <c r="AU17" s="16">
         <f>AT17+AT17*Main!$L$10</f>
-        <v>210007.49114586756</v>
-      </c>
-      <c r="AV17">
+        <v>184190.76468400285</v>
+      </c>
+      <c r="AV17" s="16">
         <f>AU17+AU17*Main!$L$10</f>
-        <v>212107.56605732624</v>
-      </c>
-      <c r="AW17">
+        <v>186032.67233084288</v>
+      </c>
+      <c r="AW17" s="16">
         <f>AV17+AV17*Main!$L$10</f>
-        <v>214228.6417178995</v>
-      </c>
-      <c r="AX17">
+        <v>187892.9990541513</v>
+      </c>
+      <c r="AX17" s="16">
         <f>AW17+AW17*Main!$L$10</f>
-        <v>216370.92813507849</v>
-      </c>
-      <c r="AY17">
+        <v>189771.92904469281</v>
+      </c>
+      <c r="AY17" s="16">
         <f>AX17+AX17*Main!$L$10</f>
-        <v>218534.63741642926</v>
-      </c>
-      <c r="AZ17">
+        <v>191669.64833513973</v>
+      </c>
+      <c r="AZ17" s="16">
         <f>AY17+AY17*Main!$L$10</f>
-        <v>220719.98379059357</v>
-      </c>
-      <c r="BA17">
+        <v>193586.34481849114</v>
+      </c>
+      <c r="BA17" s="16">
         <f>AZ17+AZ17*Main!$L$10</f>
-        <v>222927.18362849951</v>
-      </c>
-      <c r="BB17">
+        <v>195522.20826667605</v>
+      </c>
+      <c r="BB17" s="16">
         <f>BA17+BA17*Main!$L$10</f>
-        <v>225156.45546478449</v>
-      </c>
-      <c r="BC17">
+        <v>197477.43034934282</v>
+      </c>
+      <c r="BC17" s="16">
         <f>BB17+BB17*Main!$L$10</f>
-        <v>227408.02001943233</v>
-      </c>
-      <c r="BD17">
+        <v>199452.20465283626</v>
+      </c>
+      <c r="BD17" s="16">
         <f>BC17+BC17*Main!$L$10</f>
-        <v>229682.10021962665</v>
-      </c>
-      <c r="BE17">
+        <v>201446.7266993646</v>
+      </c>
+      <c r="BE17" s="16">
         <f>BD17+BD17*Main!$L$10</f>
-        <v>231978.92122182291</v>
-      </c>
-      <c r="BF17">
+        <v>203461.19396635826</v>
+      </c>
+      <c r="BF17" s="16">
         <f>BE17+BE17*Main!$L$10</f>
-        <v>234298.71043404113</v>
-      </c>
-      <c r="BG17">
+        <v>205495.80590602185</v>
+      </c>
+      <c r="BG17" s="16">
         <f>BF17+BF17*Main!$L$10</f>
-        <v>236641.69753838153</v>
-      </c>
-      <c r="BH17">
+        <v>207550.76396508206</v>
+      </c>
+      <c r="BH17" s="16">
         <f>BG17+BG17*Main!$L$10</f>
-        <v>239008.11451376535</v>
-      </c>
-      <c r="BI17">
+        <v>209626.27160473287</v>
+      </c>
+      <c r="BI17" s="16">
         <f>BH17+BH17*Main!$L$10</f>
-        <v>241398.19565890302</v>
-      </c>
-      <c r="BJ17">
+        <v>211722.53432078019</v>
+      </c>
+      <c r="BJ17" s="16">
         <f>BI17+BI17*Main!$L$10</f>
-        <v>243812.17761549205</v>
-      </c>
-      <c r="BK17">
+        <v>213839.75966398799</v>
+      </c>
+      <c r="BK17" s="16">
         <f>BJ17+BJ17*Main!$L$10</f>
-        <v>246250.29939164699</v>
-      </c>
-      <c r="BL17">
+        <v>215978.15726062786</v>
+      </c>
+      <c r="BL17" s="16">
         <f>BK17+BK17*Main!$L$10</f>
-        <v>248712.80238556347</v>
-      </c>
-      <c r="BM17">
+        <v>218137.93883323413</v>
+      </c>
+      <c r="BM17" s="16">
         <f>BL17+BL17*Main!$L$10</f>
-        <v>251199.93040941909</v>
-      </c>
-      <c r="BN17">
+        <v>220319.31822156647</v>
+      </c>
+      <c r="BN17" s="16">
         <f>BM17+BM17*Main!$L$10</f>
-        <v>253711.92971351327</v>
-      </c>
-      <c r="BO17">
+        <v>222522.51140378215</v>
+      </c>
+      <c r="BO17" s="16">
         <f>BN17+BN17*Main!$L$10</f>
-        <v>256249.04901064839</v>
-      </c>
-      <c r="BP17">
+        <v>224747.73651781998</v>
+      </c>
+      <c r="BP17" s="16">
         <f>BO17+BO17*Main!$L$10</f>
-        <v>258811.53950075488</v>
-      </c>
-      <c r="BQ17">
+        <v>226995.21388299818</v>
+      </c>
+      <c r="BQ17" s="16">
         <f>BP17+BP17*Main!$L$10</f>
-        <v>261399.65489576242</v>
-      </c>
-      <c r="BR17">
+        <v>229265.16602182816</v>
+      </c>
+      <c r="BR17" s="16">
         <f>BQ17+BQ17*Main!$L$10</f>
-        <v>264013.65144472005</v>
-      </c>
-      <c r="BS17">
+        <v>231557.81768204644</v>
+      </c>
+      <c r="BS17" s="16">
         <f>BR17+BR17*Main!$L$10</f>
-        <v>266653.78795916727</v>
-      </c>
-      <c r="BT17">
+        <v>233873.39585886692</v>
+      </c>
+      <c r="BT17" s="16">
         <f>BS17+BS17*Main!$L$10</f>
-        <v>269320.32583875896</v>
-      </c>
-      <c r="BU17">
+        <v>236212.1298174556</v>
+      </c>
+      <c r="BU17" s="16">
         <f>BT17+BT17*Main!$L$10</f>
-        <v>272013.52909714653</v>
-      </c>
-      <c r="BV17">
+        <v>238574.25111563015</v>
+      </c>
+      <c r="BV17" s="16">
         <f>BU17+BU17*Main!$L$10</f>
-        <v>274733.66438811802</v>
-      </c>
-      <c r="BW17">
+        <v>240959.99362678645</v>
+      </c>
+      <c r="BW17" s="16">
         <f>BV17+BV17*Main!$L$10</f>
-        <v>277481.00103199919</v>
-      </c>
-      <c r="BX17">
+        <v>243369.59356305431</v>
+      </c>
+      <c r="BX17" s="16">
         <f>BW17+BW17*Main!$L$10</f>
-        <v>280255.81104231917</v>
-      </c>
-      <c r="BY17">
+        <v>245803.28949868484</v>
+      </c>
+      <c r="BY17" s="16">
         <f>BX17+BX17*Main!$L$10</f>
-        <v>283058.36915274238</v>
-      </c>
-      <c r="BZ17">
+        <v>248261.3223936717</v>
+      </c>
+      <c r="BZ17" s="16">
         <f>BY17+BY17*Main!$L$10</f>
-        <v>285888.95284426981</v>
-      </c>
-      <c r="CA17">
+        <v>250743.93561760843</v>
+      </c>
+      <c r="CA17" s="16">
         <f>BZ17+BZ17*Main!$L$10</f>
-        <v>288747.8423727125</v>
-      </c>
-      <c r="CB17">
+        <v>253251.37497378452</v>
+      </c>
+      <c r="CB17" s="16">
         <f>CA17+CA17*Main!$L$10</f>
-        <v>291635.32079643966</v>
-      </c>
-      <c r="CC17">
+        <v>255783.88872352237</v>
+      </c>
+      <c r="CC17" s="16">
         <f>CB17+CB17*Main!$L$10</f>
-        <v>294551.67400440405</v>
-      </c>
-      <c r="CD17">
+        <v>258341.7276107576</v>
+      </c>
+      <c r="CD17" s="16">
         <f>CC17+CC17*Main!$L$10</f>
-        <v>297497.1907444481</v>
-      </c>
-      <c r="CE17">
+        <v>260925.14488686519</v>
+      </c>
+      <c r="CE17" s="16">
         <f>CD17+CD17*Main!$L$10</f>
-        <v>300472.16265189258</v>
-      </c>
-      <c r="CF17">
+        <v>263534.39633573382</v>
+      </c>
+      <c r="CF17" s="16">
         <f>CE17+CE17*Main!$L$10</f>
-        <v>303476.88427841151</v>
-      </c>
-      <c r="CG17">
+        <v>266169.74029909115</v>
+      </c>
+      <c r="CG17" s="16">
         <f>CF17+CF17*Main!$L$10</f>
-        <v>306511.65312119562</v>
-      </c>
-      <c r="CH17">
+        <v>268831.43770208204</v>
+      </c>
+      <c r="CH17" s="16">
         <f>CG17+CG17*Main!$L$10</f>
-        <v>309576.76965240756</v>
-      </c>
-      <c r="CI17">
+        <v>271519.75207910285</v>
+      </c>
+      <c r="CI17" s="16">
         <f>CH17+CH17*Main!$L$10</f>
-        <v>312672.53734893166</v>
-      </c>
-      <c r="CJ17">
+        <v>274234.94959989388</v>
+      </c>
+      <c r="CJ17" s="16">
         <f>CI17+CI17*Main!$L$10</f>
-        <v>315799.26272242097</v>
-      </c>
-      <c r="CK17">
+        <v>276977.29909589281</v>
+      </c>
+      <c r="CK17" s="16">
         <f>CJ17+CJ17*Main!$L$10</f>
-        <v>318957.25534964516</v>
-      </c>
-      <c r="CL17">
+        <v>279747.07208685175</v>
+      </c>
+      <c r="CL17" s="16">
         <f>CK17+CK17*Main!$L$10</f>
-        <v>322146.82790314162</v>
-      </c>
-      <c r="CM17">
+        <v>282544.54280772025</v>
+      </c>
+      <c r="CM17" s="16">
         <f>CL17+CL17*Main!$L$10</f>
-        <v>325368.29618217301</v>
-      </c>
-      <c r="CN17">
+        <v>285369.98823579744</v>
+      </c>
+      <c r="CN17" s="16">
         <f>CM17+CM17*Main!$L$10</f>
-        <v>328621.97914399474</v>
-      </c>
-      <c r="CO17">
+        <v>288223.68811815541</v>
+      </c>
+      <c r="CO17" s="16">
         <f>CN17+CN17*Main!$L$10</f>
-        <v>331908.19893543469</v>
-      </c>
-      <c r="CP17">
+        <v>291105.92499933694</v>
+      </c>
+      <c r="CP17" s="16">
         <f>CO17+CO17*Main!$L$10</f>
-        <v>335227.28092478903</v>
-      </c>
-      <c r="CQ17">
+        <v>294016.9842493303</v>
+      </c>
+      <c r="CQ17" s="16">
         <f>CP17+CP17*Main!$L$10</f>
-        <v>338579.55373403692</v>
-      </c>
-      <c r="CR17">
+        <v>296957.15409182361</v>
+      </c>
+      <c r="CR17" s="16">
         <f>CQ17+CQ17*Main!$L$10</f>
-        <v>341965.34927137732</v>
-      </c>
-      <c r="CS17">
+        <v>299926.72563274187</v>
+      </c>
+      <c r="CS17" s="16">
         <f>CR17+CR17*Main!$L$10</f>
-        <v>345385.00276409107</v>
-      </c>
-      <c r="CT17">
+        <v>302925.99288906931</v>
+      </c>
+      <c r="CT17" s="16">
         <f>CS17+CS17*Main!$L$10</f>
-        <v>348838.852791732</v>
-      </c>
-    </row>
-    <row r="18" spans="2:98">
-      <c r="B18" t="s">
+        <v>305955.25281795999</v>
+      </c>
+      <c r="CU17" s="16">
+        <f>CT17+CT17*Main!$L$10</f>
+        <v>309014.80534613959</v>
+      </c>
+      <c r="CV17" s="16">
+        <f>CU17+CU17*Main!$L$10</f>
+        <v>312104.95339960098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:100" s="10" customFormat="1">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
-        <v>1.17</v>
-      </c>
-      <c r="D18">
-        <v>1.44</v>
-      </c>
-      <c r="E18">
-        <v>1.55</v>
-      </c>
-      <c r="F18">
-        <v>1.63</v>
-      </c>
-      <c r="G18">
-        <v>1.89</v>
-      </c>
-      <c r="H18">
-        <v>1.89</v>
-      </c>
-      <c r="I18">
-        <v>2.15</v>
-      </c>
-      <c r="L18">
-        <v>2.93</v>
-      </c>
-      <c r="M18">
-        <v>5.61</v>
-      </c>
-      <c r="N18">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="O18">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:98">
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:H18" si="14">C17/C19</f>
+        <v>1.1737502924432659</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="14"/>
+        <v>1.439047320589157</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="14"/>
+        <v>1.5508034026465027</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="14"/>
+        <v>1.6260808049048892</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="14"/>
+        <v>1.8888800191586175</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="14"/>
+        <v>1.8902761104441776</v>
+      </c>
+      <c r="I18" s="11">
+        <f>I17/I19</f>
+        <v>2.1485989706723307</v>
+      </c>
+      <c r="J18" s="11">
+        <f>J17/J19</f>
+        <v>2.2150065768449907</v>
+      </c>
+      <c r="N18" s="11">
+        <f>N17/N19</f>
+        <v>2.9304533109777928</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" ref="O18:Q18" si="15">O17/O19</f>
+        <v>5.6100494355493247</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="15"/>
+        <v>4.5574891709096432</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="15"/>
+        <v>5.800581669548813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:100">
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="14">
         <v>12823</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="14">
         <v>12764</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="14">
         <v>12696</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="14">
         <v>12722</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="14">
         <v>12527</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="14">
         <v>12495</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="14">
         <v>12241</v>
       </c>
-      <c r="L19" s="8">
+      <c r="J19" s="14">
+        <f>I19</f>
+        <v>12241</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14">
         <v>13741.56</v>
       </c>
-      <c r="M19" s="8">
+      <c r="O19" s="14">
         <v>13553</v>
       </c>
-      <c r="N19" s="8">
+      <c r="P19" s="14">
         <v>13159</v>
       </c>
-      <c r="O19" s="8">
+      <c r="Q19" s="14">
         <v>12722</v>
       </c>
-    </row>
-    <row r="21" spans="2:98">
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+    </row>
+    <row r="21" spans="1:100">
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.12770000000000001</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.41149999999999998</v>
-      </c>
-      <c r="N21" s="9">
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="O21" s="9">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="P21" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="R21" s="9">
+      <c r="G21" s="8">
+        <f t="shared" ref="G21:I21" si="16">G6/C6-1</f>
+        <v>0.15406880937710454</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="16"/>
+        <v>0.13589083695244231</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="16"/>
+        <v>0.15092642092498654</v>
+      </c>
+      <c r="J21" s="8">
+        <f>J6/F6-1</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="N21" s="8">
+        <f>N6/M6-1</f>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:R21" si="17">O6/N6-1</f>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="17"/>
+        <v>9.7808156437157789E-2</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="17"/>
+        <v>8.6827702272695095E-2</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="17"/>
+        <v>0.13930720833848409</v>
+      </c>
+      <c r="S21" s="8">
         <v>0.12</v>
       </c>
-      <c r="S21" s="9">
+      <c r="T21" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="U21" s="8">
         <v>0.1</v>
       </c>
-      <c r="T21" s="9">
+      <c r="V21" s="8">
         <v>0.1</v>
       </c>
-      <c r="U21" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="V21" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:98">
+      <c r="W21" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:100">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9">
-        <v>0.56140000000000001</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.57220000000000004</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.56469999999999998</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.58679999999999999</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.53580000000000005</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.56940000000000002</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="O22" s="9">
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:F22" si="18">C8/C6</f>
+        <v>0.56135096794531936</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.5721945204010509</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.56672708069836886</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.56465067778936395</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:I22" si="19">G8/G6</f>
+        <v>0.58142018152696207</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="19"/>
+        <v>0.58099879634655782</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="19"/>
+        <v>0.58678116644763678</v>
+      </c>
+      <c r="J22" s="8">
+        <f>J8/J6</f>
+        <v>0.56853772530910174</v>
+      </c>
+      <c r="N22" s="8">
+        <f>N8/N6</f>
+        <v>0.53578374706207854</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" ref="O22:Q22" si="20">O8/O6</f>
+        <v>0.5693980290098084</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="20"/>
+        <v>0.55379442503783116</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="20"/>
+        <v>0.56625047984020505</v>
+      </c>
+      <c r="R22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="P22" s="9">
+      <c r="S22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="T22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="R22" s="9">
+      <c r="U22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="S22" s="9">
+      <c r="V22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="T22" s="9">
+      <c r="W22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="U22" s="9">
+      <c r="X22" s="8">
         <v>0.56630000000000003</v>
       </c>
-      <c r="V22" s="9">
-        <v>0.56630000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:98">
+    </row>
+    <row r="23" spans="1:100">
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9">
-        <v>0.17319999999999999</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.16139999999999999</v>
-      </c>
-      <c r="E23" s="9">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.1643</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.14269999999999999</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.17050000000000001</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0.16250000000000001</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0.15920000000000001</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:F23" si="21">C16/C15</f>
+        <v>0.17324910738808019</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="21"/>
+        <v>0.16139341642697347</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="21"/>
+        <v>7.1142142756050381E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="21"/>
+        <v>0.15258889070948714</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" ref="G23:I23" si="22">G16/G15</f>
+        <v>0.16432986049796927</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.14271714275343908</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.17047246577934777</v>
+      </c>
+      <c r="J23" s="8">
+        <f>J16/J15</f>
+        <v>0.17047246577934777</v>
+      </c>
+      <c r="N23" s="8">
+        <f>N16/N15</f>
+        <v>0.16249324071378063</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" ref="O23:Q23" si="23">O16/O15</f>
+        <v>0.16202305640663919</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="23"/>
+        <v>0.1592081650964558</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="23"/>
+        <v>0.13908559562280529</v>
+      </c>
+      <c r="R23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="P23" s="9">
+      <c r="S23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="T23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="R23" s="9">
+      <c r="U23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="S23" s="9">
+      <c r="V23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="T23" s="9">
+      <c r="W23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="U23" s="9">
+      <c r="X23" s="8">
         <v>0.1391</v>
       </c>
-      <c r="V23" s="9">
-        <v>0.1391</v>
-      </c>
-    </row>
-    <row r="24" spans="2:98">
+    </row>
+    <row r="24" spans="1:100">
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9">
-        <v>0.2157</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.2462</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.25669999999999998</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.2397</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0.29380000000000001</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.2787</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.22059999999999999</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0.24010000000000001</v>
-      </c>
-      <c r="P24" s="9">
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:F24" si="24">C17/C6</f>
+        <v>0.21567054035851949</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="24"/>
+        <v>0.2462066377137955</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="24"/>
+        <v>0.25672486406842865</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="24"/>
+        <v>0.23968253968253969</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" ref="G24:I24" si="25">G17/G6</f>
+        <v>0.29379555246526529</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="25"/>
+        <v>0.27871657501593072</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="25"/>
+        <v>0.29796755336022113</v>
+      </c>
+      <c r="J24" s="8">
+        <f>J17/J6</f>
+        <v>0.28048702669736503</v>
+      </c>
+      <c r="N24" s="8">
+        <f>N17/N6</f>
+        <v>0.22061941520980458</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" ref="O24:Q24" si="26">O17/O6</f>
+        <v>0.29511677282377918</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="26"/>
+        <v>0.21203807153261961</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="26"/>
+        <v>0.24006649446638517</v>
+      </c>
+      <c r="R24" s="8">
         <v>0.25</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="S24" s="8">
         <v>0.25</v>
       </c>
-      <c r="R24" s="9">
+      <c r="T24" s="8">
         <v>0.25</v>
       </c>
-      <c r="S24" s="9">
+      <c r="U24" s="8">
         <v>0.25</v>
       </c>
-      <c r="T24" s="9">
+      <c r="V24" s="8">
         <v>0.25</v>
       </c>
-      <c r="U24" s="9">
+      <c r="W24" s="8">
         <v>0.25</v>
       </c>
-      <c r="V24" s="9">
+      <c r="X24" s="8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="2:98">
+    <row r="25" spans="1:100">
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="L25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0.1447</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0.2515</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0.15010000000000001</v>
+      <c r="O25" s="8">
+        <f>O9/N9-1</f>
+        <v>0.14467051100714468</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" ref="P25:Q25" si="27">P9/O9-1</f>
+        <v>0.25150497433622721</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="27"/>
+        <v>0.15005063291139242</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6B28B774-A410-0A4C-A3BC-D9DE6E2F6669}"/>
   </hyperlinks>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4E97F-2113-054F-B7CD-6CDF6827C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3FAAB-D9E3-2149-999F-5433A1688AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17260" activeTab="1" xr2:uid="{119CF632-2845-164B-BDE0-A54D82971344}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="14320" windowHeight="17260" xr2:uid="{119CF632-2845-164B-BDE0-A54D82971344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Main</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +213,11 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +242,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -249,6 +260,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -586,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6709DC-42EC-A944-9198-0C4B2C2E5E01}">
-  <dimension ref="K2:L15"/>
+  <dimension ref="J1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -597,7 +610,12 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:12">
+    <row r="1" spans="11:13">
+      <c r="M1" s="17">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="2" spans="11:13">
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +623,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="11:12">
+    <row r="3" spans="11:13">
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
@@ -613,8 +631,11 @@
         <f>5843+864+5534</f>
         <v>12241</v>
       </c>
-    </row>
-    <row r="4" spans="11:12">
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13">
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
@@ -623,40 +644,46 @@
         <v>2325790</v>
       </c>
     </row>
-    <row r="5" spans="11:12">
+    <row r="5" spans="11:13">
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="4">
-        <v>93230</v>
-      </c>
-    </row>
-    <row r="6" spans="11:12">
+        <v>95657</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13">
       <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="4">
-        <v>12297</v>
-      </c>
-    </row>
-    <row r="7" spans="11:12">
+        <v>10883</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13">
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>2244857</v>
-      </c>
-    </row>
-    <row r="8" spans="11:12">
+        <v>2241016</v>
+      </c>
+    </row>
+    <row r="8" spans="11:13">
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="11:12">
+    <row r="9" spans="11:13">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="11:12">
+    <row r="10" spans="11:13">
       <c r="K10" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,7 +691,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="11:12">
+    <row r="11" spans="11:13">
       <c r="K11" s="2" t="s">
         <v>8</v>
       </c>
@@ -672,51 +699,74 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="11:12">
+    <row r="12" spans="11:13">
       <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="3">
-        <f>NPV(L11,Model!S17:CV17)+L5-L6</f>
-        <v>2288558.3731014733</v>
-      </c>
-    </row>
-    <row r="13" spans="11:12">
+        <f>NPV(L11,Model!T17:CW17)+L5-L6</f>
+        <v>2691474.22215787</v>
+      </c>
+    </row>
+    <row r="13" spans="11:13">
       <c r="K13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="6">
         <f>L12/L3</f>
-        <v>186.95844890952318</v>
-      </c>
-    </row>
-    <row r="15" spans="11:12">
+        <v>219.87372127749938</v>
+      </c>
+    </row>
+    <row r="15" spans="11:13">
       <c r="L15" s="7">
         <f>L13/L2-1</f>
-        <v>-1.6008163634088524E-2</v>
+        <v>0.15723011198683889</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12">
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="17">
+        <v>45679</v>
+      </c>
+      <c r="L19">
+        <v>186.96</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="17">
+        <v>45693</v>
+      </c>
+      <c r="L20">
+        <v>219.87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216CEA46-FD5C-F14C-B1E3-C8D30CF2F217}">
-  <dimension ref="A1:CV25"/>
+  <dimension ref="A1:CW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:Q25"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -741,44 +791,50 @@
       <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="M5">
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5">
         <v>2019</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2020</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2021</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2022</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2023</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2024</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2025</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2026</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2027</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2028</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2029</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="13" customFormat="1">
+    <row r="6" spans="1:25" s="13" customFormat="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
@@ -805,56 +861,62 @@
         <v>88268</v>
       </c>
       <c r="J6" s="13">
-        <f>F6*1.12</f>
-        <v>96667.200000000012</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="13">
+        <v>96469</v>
+      </c>
+      <c r="K6" s="13">
+        <f>G6*1.105</f>
+        <v>88995.595000000001</v>
+      </c>
+      <c r="L6" s="13">
+        <f>H6*1.102</f>
+        <v>93385.684000000008</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="13">
         <v>161857</v>
       </c>
-      <c r="N6" s="13">
+      <c r="O6" s="13">
         <v>182527</v>
       </c>
-      <c r="O6" s="13">
+      <c r="P6" s="13">
         <v>257637</v>
       </c>
-      <c r="P6" s="13">
+      <c r="Q6" s="13">
         <v>282836</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="R6" s="13">
         <v>307394</v>
       </c>
-      <c r="R6" s="13">
+      <c r="S6" s="13">
         <f>SUM(G6:J6)</f>
-        <v>350216.2</v>
-      </c>
-      <c r="S6" s="13">
-        <f t="shared" ref="S6:X6" si="0">R6+R6*S21</f>
-        <v>392242.14400000003</v>
+        <v>350018</v>
       </c>
       <c r="T6" s="13">
-        <f t="shared" si="0"/>
-        <v>439311.20128000004</v>
+        <f t="shared" ref="T6:Y6" si="0">S6+S6*T21</f>
+        <v>390270.07</v>
       </c>
       <c r="U6" s="13">
         <f t="shared" si="0"/>
-        <v>483242.32140800008</v>
+        <v>433980.31784000003</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="0"/>
-        <v>531566.55354880006</v>
+        <v>477378.34962400002</v>
       </c>
       <c r="W6" s="13">
         <f t="shared" si="0"/>
-        <v>558144.88122624008</v>
+        <v>525116.18458640005</v>
       </c>
       <c r="X6" s="13">
         <f t="shared" si="0"/>
-        <v>586052.12528755213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="14" customFormat="1">
+        <v>551371.99381572008</v>
+      </c>
+      <c r="Y6" s="13">
+        <f t="shared" si="0"/>
+        <v>578940.59350650606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="14" customFormat="1">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>12</v>
@@ -881,53 +943,53 @@
         <v>36474</v>
       </c>
       <c r="J7" s="14">
-        <f>F7*1.11</f>
-        <v>41708.250000000007</v>
+        <v>40613</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="N7" s="14">
+      <c r="M7"/>
+      <c r="O7" s="14">
         <v>84732</v>
       </c>
-      <c r="O7" s="14">
+      <c r="P7" s="14">
         <v>110939</v>
       </c>
-      <c r="P7" s="14">
+      <c r="Q7" s="14">
         <v>126203</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="R7" s="14">
         <v>133332</v>
       </c>
-      <c r="R7" s="14">
-        <f>R6-R8</f>
-        <v>151888.76593999998</v>
-      </c>
-      <c r="S7" s="14">
-        <f t="shared" ref="S7:X7" si="1">S6-S8</f>
-        <v>170115.41785279999</v>
+      <c r="S7" s="18">
+        <f>SUM(G7:J7)</f>
+        <v>146306</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="1"/>
-        <v>190529.267995136</v>
+        <f t="shared" ref="T7:Y7" si="1">T6-T8</f>
+        <v>169260.12935899998</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="1"/>
-        <v>209582.19479464961</v>
+        <v>188217.263847208</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" si="1"/>
-        <v>230540.41427411459</v>
+        <v>207038.99023192882</v>
       </c>
       <c r="W7" s="14">
         <f t="shared" si="1"/>
-        <v>242067.43498782028</v>
+        <v>227742.8892551217</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" si="1"/>
-        <v>254170.80673721136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="15" customFormat="1">
+        <v>239130.03371787781</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>251086.53540377168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="15" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -962,56 +1024,57 @@
       </c>
       <c r="J8" s="15">
         <f>J6-J7</f>
-        <v>54958.950000000004</v>
+        <v>55856</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="N8" s="15">
-        <f>N6-N7</f>
+      <c r="M8" s="10"/>
+      <c r="O8" s="15">
+        <f>O6-O7</f>
         <v>97795</v>
       </c>
-      <c r="O8" s="15">
-        <f t="shared" ref="O8:Q8" si="3">O6-O7</f>
+      <c r="P8" s="15">
+        <f t="shared" ref="P8:S8" si="3">P6-P7</f>
         <v>146698</v>
       </c>
-      <c r="P8" s="15">
+      <c r="Q8" s="15">
         <f t="shared" si="3"/>
         <v>156633</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="R8" s="15">
         <f t="shared" si="3"/>
         <v>174062</v>
       </c>
-      <c r="R8" s="15">
-        <f>R6*R22</f>
-        <v>198327.43406000003</v>
-      </c>
       <c r="S8" s="15">
-        <f t="shared" ref="S8:X8" si="4">S6*S22</f>
-        <v>222126.72614720004</v>
+        <f t="shared" si="3"/>
+        <v>203712</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" si="4"/>
-        <v>248781.93328486403</v>
+        <f t="shared" ref="T8:Y8" si="4">T6*T22</f>
+        <v>221009.94064100002</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="4"/>
-        <v>273660.12661335047</v>
+        <v>245763.05399279203</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" si="4"/>
-        <v>301026.13927468547</v>
+        <v>270339.3593920712</v>
       </c>
       <c r="W8" s="15">
         <f t="shared" si="4"/>
-        <v>316077.4462384198</v>
+        <v>297373.29533127835</v>
       </c>
       <c r="X8" s="15">
         <f t="shared" si="4"/>
-        <v>331881.31855034077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="14" customFormat="1">
+        <v>312241.96009784227</v>
+      </c>
+      <c r="Y8" s="15">
+        <f t="shared" si="4"/>
+        <v>327854.05810273439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="14" customFormat="1">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>14</v>
@@ -1038,25 +1101,29 @@
         <v>12447</v>
       </c>
       <c r="J9" s="14">
-        <f>I9</f>
-        <v>12447</v>
+        <v>13116</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="N9" s="14">
+      <c r="M9"/>
+      <c r="O9" s="14">
         <v>27573</v>
       </c>
-      <c r="O9" s="14">
+      <c r="P9" s="14">
         <v>31562</v>
       </c>
-      <c r="P9" s="14">
+      <c r="Q9" s="14">
         <v>39500</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="R9" s="14">
         <v>45427</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="14" customFormat="1">
+      <c r="S9" s="18">
+        <f>SUM(G9:J9)</f>
+        <v>49326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="14" customFormat="1">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>15</v>
@@ -1083,25 +1150,29 @@
         <v>7227</v>
       </c>
       <c r="J10" s="14">
-        <f>I10</f>
-        <v>7227</v>
+        <v>7363</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="N10" s="14">
+      <c r="M10"/>
+      <c r="O10" s="14">
         <v>17946</v>
       </c>
-      <c r="O10" s="14">
+      <c r="P10" s="14">
         <v>22912</v>
       </c>
-      <c r="P10" s="14">
+      <c r="Q10" s="14">
         <v>26567</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="R10" s="14">
         <v>27917</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="14" customFormat="1">
+      <c r="S10" s="18">
+        <f>SUM(G10:J10)</f>
+        <v>27808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="14" customFormat="1">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>16</v>
@@ -1128,25 +1199,29 @@
         <v>3599</v>
       </c>
       <c r="J11" s="14">
-        <f>I11</f>
-        <v>3599</v>
+        <v>4405</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="N11" s="14">
+      <c r="M11"/>
+      <c r="O11" s="14">
         <v>11052</v>
       </c>
-      <c r="O11" s="14">
+      <c r="P11" s="14">
         <v>13510</v>
       </c>
-      <c r="P11" s="14">
+      <c r="Q11" s="14">
         <v>15724</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="R11" s="14">
         <v>16425</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="15" customFormat="1">
+      <c r="S11" s="18">
+        <f>SUM(G11:J11)</f>
+        <v>14188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="15" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1181,28 +1256,33 @@
       </c>
       <c r="J12" s="15">
         <f>SUM(J9:J11)</f>
-        <v>23273</v>
+        <v>24884</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="N12" s="15">
-        <f>SUM(N9:N11)</f>
+      <c r="M12" s="10"/>
+      <c r="O12" s="15">
+        <f>SUM(O9:O11)</f>
         <v>56571</v>
       </c>
-      <c r="O12" s="15">
-        <f t="shared" ref="O12:Q12" si="6">SUM(O9:O11)</f>
+      <c r="P12" s="15">
+        <f t="shared" ref="P12:S12" si="6">SUM(P9:P11)</f>
         <v>67984</v>
       </c>
-      <c r="P12" s="15">
+      <c r="Q12" s="15">
         <f t="shared" si="6"/>
         <v>81791</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="R12" s="15">
         <f t="shared" si="6"/>
         <v>89769</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="15" customFormat="1">
+      <c r="S12" s="15">
+        <f t="shared" si="6"/>
+        <v>91322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="15" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1237,28 +1317,33 @@
       </c>
       <c r="J13" s="15">
         <f>J8-J12</f>
-        <v>31685.950000000004</v>
+        <v>30972</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="N13" s="15">
-        <f>N8-N12</f>
+      <c r="M13" s="10"/>
+      <c r="O13" s="15">
+        <f>O8-O12</f>
         <v>41224</v>
       </c>
-      <c r="O13" s="15">
-        <f t="shared" ref="O13:Q13" si="8">O8-O12</f>
+      <c r="P13" s="15">
+        <f t="shared" ref="P13:S13" si="8">P8-P12</f>
         <v>78714</v>
       </c>
-      <c r="P13" s="15">
+      <c r="Q13" s="15">
         <f t="shared" si="8"/>
         <v>74842</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="R13" s="15">
         <f t="shared" si="8"/>
         <v>84293</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="14" customFormat="1">
+      <c r="S13" s="15">
+        <f t="shared" si="8"/>
+        <v>112390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="14" customFormat="1">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>19</v>
@@ -1285,24 +1370,29 @@
         <v>3185</v>
       </c>
       <c r="J14" s="14">
-        <v>1000</v>
+        <v>1271</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="N14" s="14">
+      <c r="M14"/>
+      <c r="O14" s="14">
         <v>6858</v>
       </c>
-      <c r="O14" s="14">
+      <c r="P14" s="14">
         <v>12020</v>
       </c>
-      <c r="P14" s="14">
+      <c r="Q14" s="14">
         <v>-3514</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="R14" s="14">
         <v>1424</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="15" customFormat="1">
+      <c r="S14" s="18">
+        <f>SUM(G14:J14)</f>
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="15" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -1337,28 +1427,33 @@
       </c>
       <c r="J15" s="15">
         <f>SUM(J13:J14)</f>
-        <v>32685.950000000004</v>
+        <v>32243</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="N15" s="15">
-        <f>SUM(N13:N14)</f>
+      <c r="M15" s="10"/>
+      <c r="O15" s="15">
+        <f>SUM(O13:O14)</f>
         <v>48082</v>
       </c>
-      <c r="O15" s="15">
-        <f t="shared" ref="O15:Q15" si="10">SUM(O13:O14)</f>
+      <c r="P15" s="15">
+        <f t="shared" ref="P15:S15" si="10">SUM(P13:P14)</f>
         <v>90734</v>
       </c>
-      <c r="P15" s="15">
+      <c r="Q15" s="15">
         <f t="shared" si="10"/>
         <v>71328</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="R15" s="15">
         <f t="shared" si="10"/>
         <v>85717</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" s="14" customFormat="1">
+      <c r="S15" s="15">
+        <f t="shared" si="10"/>
+        <v>119815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="14" customFormat="1">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>21</v>
@@ -1385,25 +1480,29 @@
         <v>5405</v>
       </c>
       <c r="J16" s="14">
-        <f>J15*I23</f>
-        <v>5572.0544928404734</v>
+        <v>5707</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="N16" s="14">
+      <c r="M16"/>
+      <c r="O16" s="14">
         <v>7813</v>
       </c>
-      <c r="O16" s="14">
+      <c r="P16" s="14">
         <v>14701</v>
       </c>
-      <c r="P16" s="14">
+      <c r="Q16" s="14">
         <v>11356</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="R16" s="14">
         <v>11922</v>
       </c>
-    </row>
-    <row r="17" spans="1:100" s="16" customFormat="1">
+      <c r="S16" s="18">
+        <f>SUM(G16:J16)</f>
+        <v>19697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:101" s="16" customFormat="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
         <v>22</v>
@@ -1438,360 +1537,367 @@
       </c>
       <c r="J17" s="16">
         <f>J15-J16</f>
-        <v>27113.89550715953</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="N17" s="16">
-        <f>N15-N16</f>
+        <v>26536</v>
+      </c>
+      <c r="K17" s="16">
+        <f>K6*0.28</f>
+        <v>24918.766600000003</v>
+      </c>
+      <c r="L17" s="16">
+        <f>L6*0.29</f>
+        <v>27081.84836</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="O17" s="16">
+        <f>O15-O16</f>
         <v>40269</v>
       </c>
-      <c r="O17" s="16">
-        <f t="shared" ref="O17:Q17" si="12">O15-O16</f>
+      <c r="P17" s="16">
+        <f t="shared" ref="P17:S17" si="12">P15-P16</f>
         <v>76033</v>
       </c>
-      <c r="P17" s="16">
+      <c r="Q17" s="16">
         <f t="shared" si="12"/>
         <v>59972</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="R17" s="16">
         <f t="shared" si="12"/>
         <v>73795</v>
       </c>
-      <c r="R17" s="16">
-        <f>R6*R24</f>
-        <v>87554.05</v>
-      </c>
       <c r="S17" s="16">
-        <f t="shared" ref="S17:X17" si="13">S6*S24</f>
-        <v>98060.536000000007</v>
+        <f t="shared" si="12"/>
+        <v>100118</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="13"/>
-        <v>109827.80032000001</v>
+        <f t="shared" ref="T17:Y17" si="13">T6*T24</f>
+        <v>109275.61960000001</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="13"/>
-        <v>120810.58035200002</v>
+        <v>125854.2921736</v>
       </c>
       <c r="V17" s="16">
         <f t="shared" si="13"/>
-        <v>132891.63838720002</v>
+        <v>143213.50488719999</v>
       </c>
       <c r="W17" s="16">
         <f t="shared" si="13"/>
-        <v>139536.22030656002</v>
+        <v>157534.85537592001</v>
       </c>
       <c r="X17" s="16">
         <f t="shared" si="13"/>
-        <v>146513.03132188803</v>
+        <v>165411.59814471603</v>
       </c>
       <c r="Y17" s="16">
-        <f>X17+X17*Main!$L$10</f>
-        <v>147978.16163510692</v>
+        <f t="shared" si="13"/>
+        <v>173682.17805195181</v>
       </c>
       <c r="Z17" s="16">
         <f>Y17+Y17*Main!$L$10</f>
-        <v>149457.943251458</v>
+        <v>175418.99983247134</v>
       </c>
       <c r="AA17" s="16">
         <f>Z17+Z17*Main!$L$10</f>
-        <v>150952.52268397258</v>
+        <v>177173.18983079607</v>
       </c>
       <c r="AB17" s="16">
         <f>AA17+AA17*Main!$L$10</f>
-        <v>152462.04791081231</v>
+        <v>178944.92172910404</v>
       </c>
       <c r="AC17" s="16">
         <f>AB17+AB17*Main!$L$10</f>
-        <v>153986.66838992044</v>
+        <v>180734.37094639509</v>
       </c>
       <c r="AD17" s="16">
         <f>AC17+AC17*Main!$L$10</f>
-        <v>155526.53507381963</v>
+        <v>182541.71465585905</v>
       </c>
       <c r="AE17" s="16">
         <f>AD17+AD17*Main!$L$10</f>
-        <v>157081.80042455782</v>
+        <v>184367.13180241763</v>
       </c>
       <c r="AF17" s="16">
         <f>AE17+AE17*Main!$L$10</f>
-        <v>158652.6184288034</v>
+        <v>186210.80312044179</v>
       </c>
       <c r="AG17" s="16">
         <f>AF17+AF17*Main!$L$10</f>
-        <v>160239.14461309143</v>
+        <v>188072.9111516462</v>
       </c>
       <c r="AH17" s="16">
         <f>AG17+AG17*Main!$L$10</f>
-        <v>161841.53605922233</v>
+        <v>189953.64026316267</v>
       </c>
       <c r="AI17" s="16">
         <f>AH17+AH17*Main!$L$10</f>
-        <v>163459.95141981455</v>
+        <v>191853.17666579431</v>
       </c>
       <c r="AJ17" s="16">
         <f>AI17+AI17*Main!$L$10</f>
-        <v>165094.55093401269</v>
+        <v>193771.70843245226</v>
       </c>
       <c r="AK17" s="16">
         <f>AJ17+AJ17*Main!$L$10</f>
-        <v>166745.49644335281</v>
+        <v>195709.42551677677</v>
       </c>
       <c r="AL17" s="16">
         <f>AK17+AK17*Main!$L$10</f>
-        <v>168412.95140778634</v>
+        <v>197666.51977194453</v>
       </c>
       <c r="AM17" s="16">
         <f>AL17+AL17*Main!$L$10</f>
-        <v>170097.0809218642</v>
+        <v>199643.18496966397</v>
       </c>
       <c r="AN17" s="16">
         <f>AM17+AM17*Main!$L$10</f>
-        <v>171798.05173108284</v>
+        <v>201639.61681936061</v>
       </c>
       <c r="AO17" s="16">
         <f>AN17+AN17*Main!$L$10</f>
-        <v>173516.03224839366</v>
+        <v>203656.01298755422</v>
       </c>
       <c r="AP17" s="16">
         <f>AO17+AO17*Main!$L$10</f>
-        <v>175251.19257087761</v>
+        <v>205692.57311742977</v>
       </c>
       <c r="AQ17" s="16">
         <f>AP17+AP17*Main!$L$10</f>
-        <v>177003.70449658638</v>
+        <v>207749.49884860407</v>
       </c>
       <c r="AR17" s="16">
         <f>AQ17+AQ17*Main!$L$10</f>
-        <v>178773.74154155224</v>
+        <v>209826.99383709012</v>
       </c>
       <c r="AS17" s="16">
         <f>AR17+AR17*Main!$L$10</f>
-        <v>180561.47895696777</v>
+        <v>211925.26377546103</v>
       </c>
       <c r="AT17" s="16">
         <f>AS17+AS17*Main!$L$10</f>
-        <v>182367.09374653746</v>
+        <v>214044.51641321564</v>
       </c>
       <c r="AU17" s="16">
         <f>AT17+AT17*Main!$L$10</f>
-        <v>184190.76468400285</v>
+        <v>216184.9615773478</v>
       </c>
       <c r="AV17" s="16">
         <f>AU17+AU17*Main!$L$10</f>
-        <v>186032.67233084288</v>
+        <v>218346.81119312128</v>
       </c>
       <c r="AW17" s="16">
         <f>AV17+AV17*Main!$L$10</f>
-        <v>187892.9990541513</v>
+        <v>220530.27930505248</v>
       </c>
       <c r="AX17" s="16">
         <f>AW17+AW17*Main!$L$10</f>
-        <v>189771.92904469281</v>
+        <v>222735.58209810301</v>
       </c>
       <c r="AY17" s="16">
         <f>AX17+AX17*Main!$L$10</f>
-        <v>191669.64833513973</v>
+        <v>224962.93791908404</v>
       </c>
       <c r="AZ17" s="16">
         <f>AY17+AY17*Main!$L$10</f>
-        <v>193586.34481849114</v>
+        <v>227212.56729827489</v>
       </c>
       <c r="BA17" s="16">
         <f>AZ17+AZ17*Main!$L$10</f>
-        <v>195522.20826667605</v>
+        <v>229484.69297125764</v>
       </c>
       <c r="BB17" s="16">
         <f>BA17+BA17*Main!$L$10</f>
-        <v>197477.43034934282</v>
+        <v>231779.53990097021</v>
       </c>
       <c r="BC17" s="16">
         <f>BB17+BB17*Main!$L$10</f>
-        <v>199452.20465283626</v>
+        <v>234097.33529997992</v>
       </c>
       <c r="BD17" s="16">
         <f>BC17+BC17*Main!$L$10</f>
-        <v>201446.7266993646</v>
+        <v>236438.30865297973</v>
       </c>
       <c r="BE17" s="16">
         <f>BD17+BD17*Main!$L$10</f>
-        <v>203461.19396635826</v>
+        <v>238802.69173950952</v>
       </c>
       <c r="BF17" s="16">
         <f>BE17+BE17*Main!$L$10</f>
-        <v>205495.80590602185</v>
+        <v>241190.71865690462</v>
       </c>
       <c r="BG17" s="16">
         <f>BF17+BF17*Main!$L$10</f>
-        <v>207550.76396508206</v>
+        <v>243602.62584347365</v>
       </c>
       <c r="BH17" s="16">
         <f>BG17+BG17*Main!$L$10</f>
-        <v>209626.27160473287</v>
+        <v>246038.6521019084</v>
       </c>
       <c r="BI17" s="16">
         <f>BH17+BH17*Main!$L$10</f>
-        <v>211722.53432078019</v>
+        <v>248499.03862292747</v>
       </c>
       <c r="BJ17" s="16">
         <f>BI17+BI17*Main!$L$10</f>
-        <v>213839.75966398799</v>
+        <v>250984.02900915674</v>
       </c>
       <c r="BK17" s="16">
         <f>BJ17+BJ17*Main!$L$10</f>
-        <v>215978.15726062786</v>
+        <v>253493.8692992483</v>
       </c>
       <c r="BL17" s="16">
         <f>BK17+BK17*Main!$L$10</f>
-        <v>218137.93883323413</v>
+        <v>256028.80799224079</v>
       </c>
       <c r="BM17" s="16">
         <f>BL17+BL17*Main!$L$10</f>
-        <v>220319.31822156647</v>
+        <v>258589.0960721632</v>
       </c>
       <c r="BN17" s="16">
         <f>BM17+BM17*Main!$L$10</f>
-        <v>222522.51140378215</v>
+        <v>261174.98703288482</v>
       </c>
       <c r="BO17" s="16">
         <f>BN17+BN17*Main!$L$10</f>
-        <v>224747.73651781998</v>
+        <v>263786.73690321366</v>
       </c>
       <c r="BP17" s="16">
         <f>BO17+BO17*Main!$L$10</f>
-        <v>226995.21388299818</v>
+        <v>266424.60427224578</v>
       </c>
       <c r="BQ17" s="16">
         <f>BP17+BP17*Main!$L$10</f>
-        <v>229265.16602182816</v>
+        <v>269088.85031496827</v>
       </c>
       <c r="BR17" s="16">
         <f>BQ17+BQ17*Main!$L$10</f>
-        <v>231557.81768204644</v>
+        <v>271779.73881811794</v>
       </c>
       <c r="BS17" s="16">
         <f>BR17+BR17*Main!$L$10</f>
-        <v>233873.39585886692</v>
+        <v>274497.53620629915</v>
       </c>
       <c r="BT17" s="16">
         <f>BS17+BS17*Main!$L$10</f>
-        <v>236212.1298174556</v>
+        <v>277242.51156836213</v>
       </c>
       <c r="BU17" s="16">
         <f>BT17+BT17*Main!$L$10</f>
-        <v>238574.25111563015</v>
+        <v>280014.93668404577</v>
       </c>
       <c r="BV17" s="16">
         <f>BU17+BU17*Main!$L$10</f>
-        <v>240959.99362678645</v>
+        <v>282815.0860508862</v>
       </c>
       <c r="BW17" s="16">
         <f>BV17+BV17*Main!$L$10</f>
-        <v>243369.59356305431</v>
+        <v>285643.23691139504</v>
       </c>
       <c r="BX17" s="16">
         <f>BW17+BW17*Main!$L$10</f>
-        <v>245803.28949868484</v>
+        <v>288499.669280509</v>
       </c>
       <c r="BY17" s="16">
         <f>BX17+BX17*Main!$L$10</f>
-        <v>248261.3223936717</v>
+        <v>291384.66597331408</v>
       </c>
       <c r="BZ17" s="16">
         <f>BY17+BY17*Main!$L$10</f>
-        <v>250743.93561760843</v>
+        <v>294298.51263304724</v>
       </c>
       <c r="CA17" s="16">
         <f>BZ17+BZ17*Main!$L$10</f>
-        <v>253251.37497378452</v>
+        <v>297241.4977593777</v>
       </c>
       <c r="CB17" s="16">
         <f>CA17+CA17*Main!$L$10</f>
-        <v>255783.88872352237</v>
+        <v>300213.91273697146</v>
       </c>
       <c r="CC17" s="16">
         <f>CB17+CB17*Main!$L$10</f>
-        <v>258341.7276107576</v>
+        <v>303216.05186434119</v>
       </c>
       <c r="CD17" s="16">
         <f>CC17+CC17*Main!$L$10</f>
-        <v>260925.14488686519</v>
+        <v>306248.21238298458</v>
       </c>
       <c r="CE17" s="16">
         <f>CD17+CD17*Main!$L$10</f>
-        <v>263534.39633573382</v>
+        <v>309310.69450681441</v>
       </c>
       <c r="CF17" s="16">
         <f>CE17+CE17*Main!$L$10</f>
-        <v>266169.74029909115</v>
+        <v>312403.80145188258</v>
       </c>
       <c r="CG17" s="16">
         <f>CF17+CF17*Main!$L$10</f>
-        <v>268831.43770208204</v>
+        <v>315527.83946640143</v>
       </c>
       <c r="CH17" s="16">
         <f>CG17+CG17*Main!$L$10</f>
-        <v>271519.75207910285</v>
+        <v>318683.11786106543</v>
       </c>
       <c r="CI17" s="16">
         <f>CH17+CH17*Main!$L$10</f>
-        <v>274234.94959989388</v>
+        <v>321869.94903967611</v>
       </c>
       <c r="CJ17" s="16">
         <f>CI17+CI17*Main!$L$10</f>
-        <v>276977.29909589281</v>
+        <v>325088.64853007288</v>
       </c>
       <c r="CK17" s="16">
         <f>CJ17+CJ17*Main!$L$10</f>
-        <v>279747.07208685175</v>
+        <v>328339.53501537361</v>
       </c>
       <c r="CL17" s="16">
         <f>CK17+CK17*Main!$L$10</f>
-        <v>282544.54280772025</v>
+        <v>331622.93036552734</v>
       </c>
       <c r="CM17" s="16">
         <f>CL17+CL17*Main!$L$10</f>
-        <v>285369.98823579744</v>
+        <v>334939.15966918261</v>
       </c>
       <c r="CN17" s="16">
         <f>CM17+CM17*Main!$L$10</f>
-        <v>288223.68811815541</v>
+        <v>338288.55126587441</v>
       </c>
       <c r="CO17" s="16">
         <f>CN17+CN17*Main!$L$10</f>
-        <v>291105.92499933694</v>
+        <v>341671.43677853316</v>
       </c>
       <c r="CP17" s="16">
         <f>CO17+CO17*Main!$L$10</f>
-        <v>294016.9842493303</v>
+        <v>345088.15114631847</v>
       </c>
       <c r="CQ17" s="16">
         <f>CP17+CP17*Main!$L$10</f>
-        <v>296957.15409182361</v>
+        <v>348539.03265778167</v>
       </c>
       <c r="CR17" s="16">
         <f>CQ17+CQ17*Main!$L$10</f>
-        <v>299926.72563274187</v>
+        <v>352024.42298435949</v>
       </c>
       <c r="CS17" s="16">
         <f>CR17+CR17*Main!$L$10</f>
-        <v>302925.99288906931</v>
+        <v>355544.6672142031</v>
       </c>
       <c r="CT17" s="16">
         <f>CS17+CS17*Main!$L$10</f>
-        <v>305955.25281795999</v>
+        <v>359100.11388634512</v>
       </c>
       <c r="CU17" s="16">
         <f>CT17+CT17*Main!$L$10</f>
-        <v>309014.80534613959</v>
+        <v>362691.11502520856</v>
       </c>
       <c r="CV17" s="16">
         <f>CU17+CU17*Main!$L$10</f>
-        <v>312104.95339960098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:100" s="10" customFormat="1">
+        <v>366318.02617546066</v>
+      </c>
+      <c r="CW17" s="16">
+        <f>CV17+CV17*Main!$L$10</f>
+        <v>369981.20643721527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:101" s="10" customFormat="1">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1825,26 +1931,46 @@
       </c>
       <c r="J18" s="11">
         <f>J17/J19</f>
-        <v>2.2150065768449907</v>
-      </c>
-      <c r="N18" s="11">
-        <f>N17/N19</f>
+        <v>2.1490119857466796</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18:L18" si="15">K17/K19</f>
+        <v>2.0180407029478462</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="15"/>
+        <v>2.1932173922902494</v>
+      </c>
+      <c r="O18" s="11">
+        <f>O17/O19</f>
         <v>2.9304533109777928</v>
       </c>
-      <c r="O18" s="11">
-        <f t="shared" ref="O18:Q18" si="15">O17/O19</f>
+      <c r="P18" s="11">
+        <f t="shared" ref="P18:U18" si="16">P17/P19</f>
         <v>5.6100494355493247</v>
       </c>
-      <c r="P18" s="11">
-        <f t="shared" si="15"/>
+      <c r="Q18" s="11">
+        <f t="shared" si="16"/>
         <v>4.5574891709096432</v>
       </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="15"/>
+      <c r="R18" s="11">
+        <f t="shared" si="16"/>
         <v>5.800581669548813</v>
       </c>
-    </row>
-    <row r="19" spans="1:100">
+      <c r="S18" s="11">
+        <f t="shared" si="16"/>
+        <v>8.0435446292279256</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="16"/>
+        <v>8.7792736884389821</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="16"/>
+        <v>10.111214925170724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:101">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -1870,145 +1996,164 @@
         <v>12241</v>
       </c>
       <c r="J19" s="14">
-        <f>I19</f>
-        <v>12241</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+        <v>12348</v>
+      </c>
+      <c r="K19" s="14">
+        <f>J19</f>
+        <v>12348</v>
+      </c>
+      <c r="L19" s="14">
+        <f>K19</f>
+        <v>12348</v>
+      </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="14">
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
         <v>13741.56</v>
       </c>
-      <c r="O19" s="14">
+      <c r="P19" s="14">
         <v>13553</v>
       </c>
-      <c r="P19" s="14">
+      <c r="Q19" s="14">
         <v>13159</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="R19" s="14">
         <v>12722</v>
       </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
+      <c r="S19" s="14">
+        <v>12447</v>
+      </c>
+      <c r="T19" s="14">
+        <f>S19</f>
+        <v>12447</v>
+      </c>
+      <c r="U19" s="14">
+        <f>T19</f>
+        <v>12447</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
-    </row>
-    <row r="21" spans="1:100">
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="21" spans="1:101">
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" ref="G21:I21" si="16">G6/C6-1</f>
+        <f t="shared" ref="G21:I21" si="17">G6/C6-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="J21" s="8">
         <f>J6/F6-1</f>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="N21" s="8">
-        <f>N6/M6-1</f>
+        <v>0.11770362646275045</v>
+      </c>
+      <c r="K21" s="8">
+        <f>K6/G6-1</f>
+        <v>0.10499999999999998</v>
+      </c>
+      <c r="L21" s="8">
+        <f>L6/H6-1</f>
+        <v>0.10200000000000009</v>
+      </c>
+      <c r="O21" s="8">
+        <f>O6/N6-1</f>
         <v>0.12770532012826141</v>
       </c>
-      <c r="O21" s="8">
-        <f t="shared" ref="O21:R21" si="17">O6/N6-1</f>
+      <c r="P21" s="8">
+        <f t="shared" ref="P21:S21" si="18">P6/O6-1</f>
         <v>0.41150076427049154</v>
       </c>
-      <c r="P21" s="8">
-        <f t="shared" si="17"/>
+      <c r="Q21" s="8">
+        <f t="shared" si="18"/>
         <v>9.7808156437157789E-2</v>
       </c>
-      <c r="Q21" s="8">
-        <f t="shared" si="17"/>
+      <c r="R21" s="8">
+        <f t="shared" si="18"/>
         <v>8.6827702272695095E-2</v>
       </c>
-      <c r="R21" s="8">
-        <f t="shared" si="17"/>
-        <v>0.13930720833848409</v>
-      </c>
       <c r="S21" s="8">
-        <v>0.12</v>
+        <f t="shared" si="18"/>
+        <v>0.13866243322901561</v>
       </c>
       <c r="T21" s="8">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="U21" s="8">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
       <c r="V21" s="8">
         <v>0.1</v>
       </c>
       <c r="W21" s="8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="X21" s="8">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:100">
+      <c r="Y21" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:101">
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:F22" si="18">C8/C6</f>
+        <f t="shared" ref="C22:F22" si="19">C8/C6</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" ref="G22:I22" si="19">G8/G6</f>
+        <f t="shared" ref="G22:I22" si="20">G8/G6</f>
         <v>0.58142018152696207</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="J22" s="8">
         <f>J8/J6</f>
-        <v>0.56853772530910174</v>
-      </c>
-      <c r="N22" s="8">
-        <f>N8/N6</f>
+        <v>0.5790046543449191</v>
+      </c>
+      <c r="O22" s="8">
+        <f>O8/O6</f>
         <v>0.53578374706207854</v>
       </c>
-      <c r="O22" s="8">
-        <f t="shared" ref="O22:Q22" si="20">O8/O6</f>
+      <c r="P22" s="8">
+        <f t="shared" ref="P22:R22" si="21">P8/P6</f>
         <v>0.5693980290098084</v>
       </c>
-      <c r="P22" s="8">
-        <f t="shared" si="20"/>
+      <c r="Q22" s="8">
+        <f t="shared" si="21"/>
         <v>0.55379442503783116</v>
       </c>
-      <c r="Q22" s="8">
-        <f t="shared" si="20"/>
+      <c r="R22" s="8">
+        <f t="shared" si="21"/>
         <v>0.56625047984020505</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0.56630000000000003</v>
       </c>
       <c r="S22" s="8">
         <v>0.56630000000000003</v>
@@ -2028,61 +2173,61 @@
       <c r="X22" s="8">
         <v>0.56630000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:100">
+      <c r="Y22" s="8">
+        <v>0.56630000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:101">
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:F23" si="21">C16/C15</f>
+        <f t="shared" ref="C23:F23" si="22">C16/C15</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" ref="G23:I23" si="22">G16/G15</f>
+        <f t="shared" ref="G23:I23" si="23">G16/G15</f>
         <v>0.16432986049796927</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="J23" s="8">
         <f>J16/J15</f>
-        <v>0.17047246577934777</v>
-      </c>
-      <c r="N23" s="8">
-        <f>N16/N15</f>
+        <v>0.17699965884067859</v>
+      </c>
+      <c r="O23" s="8">
+        <f>O16/O15</f>
         <v>0.16249324071378063</v>
       </c>
-      <c r="O23" s="8">
-        <f t="shared" ref="O23:Q23" si="23">O16/O15</f>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:R23" si="24">P16/P15</f>
         <v>0.16202305640663919</v>
       </c>
-      <c r="P23" s="8">
-        <f t="shared" si="23"/>
+      <c r="Q23" s="8">
+        <f t="shared" si="24"/>
         <v>0.1592081650964558</v>
       </c>
-      <c r="Q23" s="8">
-        <f t="shared" si="23"/>
+      <c r="R23" s="8">
+        <f t="shared" si="24"/>
         <v>0.13908559562280529</v>
-      </c>
-      <c r="R23" s="8">
-        <v>0.1391</v>
       </c>
       <c r="S23" s="8">
         <v>0.1391</v>
@@ -2102,96 +2247,112 @@
       <c r="X23" s="8">
         <v>0.1391</v>
       </c>
-    </row>
-    <row r="24" spans="1:100">
+      <c r="Y23" s="8">
+        <v>0.1391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:101">
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:F24" si="24">C17/C6</f>
+        <f t="shared" ref="C24:F24" si="25">C17/C6</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" ref="G24:I24" si="25">G17/G6</f>
+        <f t="shared" ref="G24:I24" si="26">G17/G6</f>
         <v>0.29379555246526529</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="J24" s="8">
         <f>J17/J6</f>
-        <v>0.28048702669736503</v>
-      </c>
-      <c r="N24" s="8">
-        <f>N17/N6</f>
+        <v>0.27507282132083882</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" ref="K24:L24" si="27">K17/K6</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="27"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O24" s="8">
+        <f>O17/O6</f>
         <v>0.22061941520980458</v>
       </c>
-      <c r="O24" s="8">
-        <f t="shared" ref="O24:Q24" si="26">O17/O6</f>
+      <c r="P24" s="8">
+        <f t="shared" ref="P24:S24" si="28">P17/P6</f>
         <v>0.29511677282377918</v>
       </c>
-      <c r="P24" s="8">
-        <f t="shared" si="26"/>
+      <c r="Q24" s="8">
+        <f t="shared" si="28"/>
         <v>0.21203807153261961</v>
       </c>
-      <c r="Q24" s="8">
-        <f t="shared" si="26"/>
+      <c r="R24" s="8">
+        <f t="shared" si="28"/>
         <v>0.24006649446638517</v>
       </c>
-      <c r="R24" s="8">
-        <v>0.25</v>
-      </c>
       <c r="S24" s="8">
-        <v>0.25</v>
+        <f t="shared" si="28"/>
+        <v>0.28603671811164</v>
       </c>
       <c r="T24" s="8">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U24" s="8">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V24" s="8">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="W24" s="8">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="X24" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:100">
+        <v>0.3</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:101">
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="O25" s="8">
-        <f>O9/N9-1</f>
+      <c r="P25" s="8">
+        <f>P9/O9-1</f>
         <v>0.14467051100714468</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" ref="P25:Q25" si="27">P9/O9-1</f>
+      <c r="Q25" s="8">
+        <f t="shared" ref="Q25:S25" si="29">Q9/P9-1</f>
         <v>0.25150497433622721</v>
       </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="27"/>
+      <c r="R25" s="8">
+        <f t="shared" si="29"/>
         <v>0.15005063291139242</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="29"/>
+        <v>8.583001298787063E-2</v>
       </c>
     </row>
   </sheetData>
